--- a/data/georgia_census/samegrelo/senaki/population_total.xlsx
+++ b/data/georgia_census/samegrelo/senaki/population_total.xlsx
@@ -1367,13 +1367,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99D01C18-3C99-4853-B235-B18C04F9DE0D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07F6CA41-1621-4A49-81C3-174D2DE78D7E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FBE8D0D-F692-4DD9-AB36-E3CA080A4CBF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C3F33C-B044-4F65-A700-1F4FD42E9239}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8AFCFB4-8923-4023-A969-92B6228ACC84}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{012CA66B-FC4A-4027-A916-6F018E032147}"/>
 </file>